--- a/data/IN/outputs/house_democrats_committee_sponsor.xlsx
+++ b/data/IN/outputs/house_democrats_committee_sponsor.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16729"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14415" windowHeight="9750"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="8445"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/data/IN/outputs/house_democrats_committee_sponsor.xlsx
+++ b/data/IN/outputs/house_democrats_committee_sponsor.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="8445"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="8445"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/data/IN/outputs/house_democrats_committee_sponsor.xlsx
+++ b/data/IN/outputs/house_democrats_committee_sponsor.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16828"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,11 +24,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>Row</t>
   </si>
   <si>
+    <t>id12223</t>
+  </si>
+  <si>
+    <t>id14442</t>
+  </si>
+  <si>
+    <t>id5492</t>
+  </si>
+  <si>
     <t>id5499</t>
   </si>
   <si>
@@ -44,43 +53,55 @@
     <t>id5528</t>
   </si>
   <si>
+    <t>id5533</t>
+  </si>
+  <si>
     <t>id5563</t>
   </si>
   <si>
+    <t>id14191</t>
+  </si>
+  <si>
+    <t>id14436</t>
+  </si>
+  <si>
+    <t>id14440</t>
+  </si>
+  <si>
+    <t>id14446</t>
+  </si>
+  <si>
+    <t>id5489</t>
+  </si>
+  <si>
+    <t>id5494</t>
+  </si>
+  <si>
+    <t>id5498</t>
+  </si>
+  <si>
+    <t>id5518</t>
+  </si>
+  <si>
+    <t>id5543</t>
+  </si>
+  <si>
+    <t>id5549</t>
+  </si>
+  <si>
+    <t>id5552</t>
+  </si>
+  <si>
     <t>id5566</t>
   </si>
   <si>
+    <t>id5568</t>
+  </si>
+  <si>
     <t>id5569</t>
   </si>
   <si>
-    <t>id12223</t>
-  </si>
-  <si>
-    <t>id14191</t>
-  </si>
-  <si>
-    <t>id14436</t>
-  </si>
-  <si>
-    <t>id14440</t>
-  </si>
-  <si>
-    <t>id14442</t>
-  </si>
-  <si>
-    <t>id14446</t>
-  </si>
-  <si>
-    <t>id5494</t>
-  </si>
-  <si>
-    <t>id5518</t>
-  </si>
-  <si>
-    <t>id5543</t>
-  </si>
-  <si>
-    <t>id5552</t>
+    <t>id5624</t>
   </si>
 </sst>
 </file>
@@ -432,15 +453,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I19"/>
+      <selection activeCell="L1" sqref="L1:N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -468,68 +489,113 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B2">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="C2">
+        <v>0.52941176470588236</v>
+      </c>
+      <c r="D2">
+        <v>0.5</v>
+      </c>
+      <c r="E2">
+        <v>0.52941176470588236</v>
+      </c>
+      <c r="F2">
+        <v>0.52941176470588236</v>
+      </c>
+      <c r="G2">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="H2">
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="I2">
+        <v>0.4</v>
+      </c>
+      <c r="J2">
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="K2">
         <v>0.75</v>
       </c>
-      <c r="C2">
+      <c r="L2">
+        <v>0.375</v>
+      </c>
+      <c r="M2">
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="N2">
+        <v>0.41176470588235292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>0.5</v>
+      </c>
+      <c r="C3">
         <v>0.75</v>
       </c>
-      <c r="D2">
-        <v>0.5</v>
-      </c>
-      <c r="E2">
+      <c r="D3">
+        <v>0.5</v>
+      </c>
+      <c r="E3">
+        <v>0.5</v>
+      </c>
+      <c r="F3">
         <v>0.75</v>
       </c>
-      <c r="F2">
-        <v>0.5</v>
-      </c>
-      <c r="G2">
+      <c r="G3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H3">
         <v>0.75</v>
       </c>
-      <c r="H2">
-        <v>0.5</v>
-      </c>
-      <c r="I2">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="C3">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D3">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E3">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="H3">
-        <v>0.33333333333333331</v>
-      </c>
       <c r="I3">
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="J3">
+        <v>0.5</v>
+      </c>
+      <c r="K3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L3">
+        <v>0.5</v>
+      </c>
+      <c r="M3">
+        <v>0.5</v>
+      </c>
+      <c r="N3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -538,80 +604,128 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>0.66666666666666663</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="C6">
-        <v>0.66666666666666663</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D6">
-        <v>0.33333333333333331</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E6">
-        <v>0.66666666666666663</v>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="F6">
+        <v>0.5714285714285714</v>
       </c>
       <c r="G6">
-        <v>0.66666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H6">
-        <v>0.33333333333333331</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="I6">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.25</v>
+      </c>
+      <c r="J6">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="K6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L6">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -628,355 +742,834 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="F8">
+        <v>0.33333333333333331</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="I8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.75</v>
+      </c>
+      <c r="J8">
+        <v>0.5</v>
+      </c>
+      <c r="L8">
+        <v>0.5</v>
+      </c>
+      <c r="M8">
+        <v>0.75</v>
+      </c>
+      <c r="N8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C10">
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E10">
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="F10">
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <v>0.5</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.5</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
       <c r="B12">
-        <v>0.5</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="D12">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G12">
-        <v>0.5</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="H12">
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I12">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.25</v>
+      </c>
+      <c r="M12">
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="N12">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="I13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="J13">
+        <v>0.2</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0.2</v>
+      </c>
+      <c r="M13">
+        <v>0.5</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B14">
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C14">
-        <v>0.75</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D14">
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E14">
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="G14">
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="H14">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K14">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L14">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="I15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.6</v>
+      </c>
+      <c r="J15">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="K15">
+        <v>0.5</v>
+      </c>
+      <c r="L15">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="M15">
+        <v>0.5</v>
+      </c>
+      <c r="N15">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D16">
+        <v>0.66666666666666663</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F16">
+        <v>0.66666666666666663</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J16">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M16">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="N16">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B17">
+        <v>0.5</v>
+      </c>
+      <c r="C17">
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="D17">
+        <v>0.5</v>
+      </c>
+      <c r="E17">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F17">
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="G17">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H17">
+        <v>0.75</v>
+      </c>
+      <c r="I17">
+        <v>0.625</v>
+      </c>
+      <c r="J17">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="K17">
         <v>0.8</v>
       </c>
-      <c r="C17">
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <v>0.625</v>
+      </c>
+      <c r="N17">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>0.25</v>
+      </c>
+      <c r="C18">
+        <v>0.25</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0.5</v>
+      </c>
+      <c r="F18">
+        <v>0.25</v>
+      </c>
+      <c r="G18">
+        <v>0.25</v>
+      </c>
+      <c r="H18">
+        <v>0.75</v>
+      </c>
+      <c r="I18">
+        <v>0.25</v>
+      </c>
+      <c r="J18">
+        <v>0.25</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0.5</v>
+      </c>
+      <c r="N18">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="N19">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
         <v>0.8</v>
       </c>
-      <c r="D17">
+      <c r="D22">
         <v>0.2</v>
       </c>
-      <c r="E17">
+      <c r="E22">
+        <v>0.8</v>
+      </c>
+      <c r="F22">
+        <v>0.8</v>
+      </c>
+      <c r="G22">
+        <v>0.2</v>
+      </c>
+      <c r="H22">
         <v>0.6</v>
       </c>
-      <c r="F17">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="G17">
+      <c r="I22">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J22">
         <v>0.6</v>
       </c>
-      <c r="H17">
+      <c r="K22">
+        <v>0.6</v>
+      </c>
+      <c r="L22">
         <v>0.2</v>
       </c>
-      <c r="I17">
+      <c r="M22">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="N22">
         <v>0.6</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="C18">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D18">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E18">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F18">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G18">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="H18">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="I18">
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0.2</v>
+      </c>
+      <c r="D23">
+        <v>0.2</v>
+      </c>
+      <c r="E23">
+        <v>0.2</v>
+      </c>
+      <c r="F23">
+        <v>0.2</v>
+      </c>
+      <c r="G23">
+        <v>0.25</v>
+      </c>
+      <c r="H23">
+        <v>0.4</v>
+      </c>
+      <c r="I23">
+        <v>0.2</v>
+      </c>
+      <c r="J23">
+        <v>0.4</v>
+      </c>
+      <c r="K23">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L23">
+        <v>0.2</v>
+      </c>
+      <c r="M23">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N23">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>0.6</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0.75</v>
+      </c>
+      <c r="E24">
+        <v>0.4</v>
+      </c>
+      <c r="F24">
+        <v>0.75</v>
+      </c>
+      <c r="G24">
+        <v>0.4</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>0.6</v>
+      </c>
+      <c r="J24">
+        <v>0.4</v>
+      </c>
+      <c r="L24">
+        <v>0.8</v>
+      </c>
+      <c r="M24">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="N24">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C25">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="D25">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="E25">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="F25">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G25">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H25">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="I25">
+        <v>0.5</v>
+      </c>
+      <c r="J25">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="M25">
+        <v>0.6</v>
+      </c>
+      <c r="N25">
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>0.25</v>
+      </c>
+      <c r="C26">
+        <v>0.5</v>
+      </c>
+      <c r="D26">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E26">
+        <v>0.5</v>
+      </c>
+      <c r="F26">
+        <v>0.5</v>
+      </c>
+      <c r="G26">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H26">
+        <v>0.75</v>
+      </c>
+      <c r="I26">
+        <v>0.75</v>
+      </c>
+      <c r="J26">
+        <v>0.5</v>
+      </c>
+      <c r="L26">
+        <v>0.25</v>
+      </c>
+      <c r="M26">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="N26">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
